--- a/ADR_results.xlsx
+++ b/ADR_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIIT\LAB_SE\ADR\LLM4ADR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1F734-D592-4F37-9E48-9E20A6BEC74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5C98D-AA7B-4D91-B469-BD3AAC104BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0shot" sheetId="1" r:id="rId1"/>
@@ -4120,6 +4120,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4149,9 +4152,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4494,19 +4494,19 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1">
@@ -4514,27 +4514,27 @@
       <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="86" t="s">
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="87"/>
+      <c r="M1" s="88"/>
       <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
@@ -5134,13 +5134,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B2273-19A7-4D22-B89A-544F0F4CE3FE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="110.44140625" customWidth="1"/>
+    <col min="1" max="1" width="110.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5188,7 +5188,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="8" t="s">
         <v>270</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="86.4">
+    <row r="8" spans="1:7" ht="105">
       <c r="A8" s="8" t="s">
         <v>285</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="86.4">
+    <row r="10" spans="1:7" ht="105">
       <c r="A10" s="8" t="s">
         <v>291</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="72">
+    <row r="12" spans="1:7" ht="75">
       <c r="A12" s="8" t="s">
         <v>297</v>
       </c>
@@ -5261,16 +5261,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033403E0-8FEC-4AA7-9215-A0F7FBAFD3C8}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5291,28 +5291,28 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="84" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="84">
         <v>1</v>
       </c>
-      <c r="E2" s="94">
+      <c r="E2" s="84">
         <v>2</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="84">
         <v>3</v>
       </c>
-      <c r="G2" s="94">
+      <c r="G2" s="84">
         <v>4</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="84">
         <v>5</v>
       </c>
     </row>
@@ -5329,58 +5329,58 @@
       <c r="F3" t="s">
         <v>344</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="27" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="27" customFormat="1">
+      <c r="A4" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="27" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" s="27" customFormat="1">
+      <c r="A5" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="27" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" s="70" customFormat="1">
+      <c r="A6" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="70" t="s">
         <v>358</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="70" t="s">
         <v>359</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="70" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6105,71 +6105,71 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8" s="27" customFormat="1">
+      <c r="A51" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+    <row r="52" spans="1:8" s="27" customFormat="1">
+      <c r="A52" s="27" t="s">
         <v>545</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="27" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
+    <row r="53" spans="1:8" s="27" customFormat="1">
+      <c r="A53" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="27" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
+    <row r="54" spans="1:8" s="27" customFormat="1">
+      <c r="A54" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="27" t="s">
         <v>557</v>
       </c>
     </row>
@@ -6207,20 +6207,20 @@
         <v>564</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
+    <row r="57" spans="1:8" s="27" customFormat="1">
+      <c r="A57" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="27" t="s">
         <v>565</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="27" t="s">
         <v>567</v>
       </c>
     </row>
@@ -6297,20 +6297,20 @@
         <v>586</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
+    <row r="63" spans="1:8" s="27" customFormat="1">
+      <c r="A63" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="27" t="s">
         <v>589</v>
       </c>
     </row>
@@ -6328,20 +6328,20 @@
         <v>591</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+    <row r="65" spans="1:8" s="27" customFormat="1">
+      <c r="A65" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="27" t="s">
         <v>596</v>
       </c>
     </row>
@@ -6358,7 +6358,7 @@
       <c r="F66" t="s">
         <v>600</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="27" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6379,37 +6379,37 @@
         <v>606</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
+    <row r="68" spans="1:8" s="27" customFormat="1">
+      <c r="A68" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="27" t="s">
         <v>609</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="27" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
+    <row r="69" spans="1:8" s="70" customFormat="1">
+      <c r="A69" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="70" t="s">
         <v>612</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="70" t="s">
         <v>614</v>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       <c r="F73" t="s">
         <v>628</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="27" t="s">
         <v>629</v>
       </c>
     </row>
@@ -6512,139 +6512,139 @@
         <v>635</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
+    <row r="76" spans="1:8" s="27" customFormat="1">
+      <c r="A76" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
+    <row r="77" spans="1:8" s="70" customFormat="1">
+      <c r="A77" s="70" t="s">
         <v>459</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="70" t="s">
         <v>639</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="70" t="s">
         <v>461</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="70" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
+    <row r="78" spans="1:8" s="27" customFormat="1">
+      <c r="A78" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="27" t="s">
         <v>642</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="27" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
+    <row r="79" spans="1:8" s="27" customFormat="1">
+      <c r="A79" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="27" t="s">
         <v>647</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="27" t="s">
         <v>648</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="27" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
+    <row r="80" spans="1:8" s="27" customFormat="1">
+      <c r="A80" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="27" t="s">
         <v>652</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="27" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+    <row r="81" spans="1:8" s="27" customFormat="1">
+      <c r="A81" s="27" t="s">
         <v>655</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="27" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
+    <row r="82" spans="1:8" s="27" customFormat="1">
+      <c r="A82" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="27" t="s">
         <v>662</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="27" t="s">
         <v>663</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="27" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
+    <row r="83" spans="1:8" s="27" customFormat="1">
+      <c r="A83" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="27" t="s">
         <v>667</v>
       </c>
     </row>
@@ -6727,20 +6727,20 @@
         <v>680</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
+    <row r="89" spans="1:8" s="27" customFormat="1">
+      <c r="A89" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="27" t="s">
         <v>683</v>
       </c>
     </row>
@@ -6758,20 +6758,20 @@
         <v>685</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
+    <row r="91" spans="1:8" s="27" customFormat="1">
+      <c r="A91" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="27" t="s">
         <v>689</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="27" t="s">
         <v>690</v>
       </c>
     </row>
@@ -6806,34 +6806,34 @@
         <v>680</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
+    <row r="94" spans="1:8" s="27" customFormat="1">
+      <c r="A94" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="27" t="s">
         <v>696</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="27" t="s">
         <v>585</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="27" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
+    <row r="95" spans="1:8" s="27" customFormat="1">
+      <c r="A95" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="27" t="s">
         <v>700</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="27" t="s">
         <v>701</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="27" t="s">
         <v>702</v>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       <c r="F100" t="s">
         <v>714</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="27" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6946,7 +6946,7 @@
       <c r="C102" t="s">
         <v>722</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="27" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       <c r="D103" t="s">
         <v>724</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="27" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6977,24 +6977,24 @@
       <c r="C104" t="s">
         <v>727</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="27" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
+    <row r="105" spans="1:8" s="27" customFormat="1">
+      <c r="A105" s="27" t="s">
         <v>728</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="27" t="s">
         <v>729</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="27" t="s">
         <v>730</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="27" t="s">
         <v>731</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="27" t="s">
         <v>732</v>
       </c>
     </row>
@@ -7028,7 +7028,7 @@
       <c r="F107" t="s">
         <v>737</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="27" t="s">
         <v>738</v>
       </c>
     </row>
@@ -7045,24 +7045,24 @@
       <c r="E108" t="s">
         <v>742</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="27" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
+    <row r="109" spans="1:8" s="70" customFormat="1">
+      <c r="A109" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="70" t="s">
         <v>745</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="70" t="s">
         <v>746</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="70" t="s">
         <v>747</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="70" t="s">
         <v>748</v>
       </c>
     </row>
@@ -7100,20 +7100,20 @@
         <v>753</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
+    <row r="112" spans="1:8" s="27" customFormat="1">
+      <c r="A112" s="27" t="s">
         <v>758</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="27" t="s">
         <v>759</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="27" t="s">
         <v>760</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="27" t="s">
         <v>761</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="27" t="s">
         <v>762</v>
       </c>
     </row>
@@ -7148,20 +7148,20 @@
         <v>768</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" t="s">
+    <row r="115" spans="1:8" s="70" customFormat="1">
+      <c r="A115" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="70" t="s">
         <v>769</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="70" t="s">
         <v>770</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="70" t="s">
         <v>771</v>
       </c>
     </row>
@@ -7199,20 +7199,20 @@
         <v>781</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
+    <row r="118" spans="1:8" s="70" customFormat="1">
+      <c r="A118" s="70" t="s">
         <v>782</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="70" t="s">
         <v>783</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="70" t="s">
         <v>784</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="70" t="s">
         <v>785</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="70" t="s">
         <v>786</v>
       </c>
     </row>
@@ -7250,20 +7250,20 @@
         <v>793</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" t="s">
+    <row r="121" spans="1:8" s="70" customFormat="1">
+      <c r="A121" s="70" t="s">
         <v>794</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="70" t="s">
         <v>795</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="70" t="s">
         <v>796</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="70" t="s">
         <v>797</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="70" t="s">
         <v>798</v>
       </c>
     </row>
@@ -7277,24 +7277,24 @@
       <c r="C122" t="s">
         <v>466</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="27" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" t="s">
+    <row r="123" spans="1:8" s="27" customFormat="1">
+      <c r="A123" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="27" t="s">
         <v>802</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="27" t="s">
         <v>803</v>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
       <c r="C124" t="s">
         <v>429</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="27" t="s">
         <v>805</v>
       </c>
       <c r="G124" t="s">
@@ -7345,55 +7345,55 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="82"/>
       <c r="B1" s="82"/>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
       <c r="R1" s="83"/>
       <c r="S1" s="82" t="s">
         <v>0</v>
@@ -7440,14 +7440,14 @@
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="90" t="s">
+      <c r="N2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90" t="s">
+      <c r="O2" s="91"/>
+      <c r="P2" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="90"/>
+      <c r="Q2" s="91"/>
       <c r="R2" s="3"/>
       <c r="S2" s="2"/>
       <c r="T2" s="4"/>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="V4" s="33"/>
     </row>
-    <row r="5" spans="1:22" s="29" customFormat="1" ht="15.6">
+    <row r="5" spans="1:22" s="29" customFormat="1" ht="15.75">
       <c r="A5" s="48" t="s">
         <v>44</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="V9" s="33"/>
     </row>
     <row r="10" spans="1:22" s="29" customFormat="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="89" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="33"/>
@@ -7827,7 +7827,7 @@
       <c r="V10" s="33"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="88"/>
+      <c r="A11" s="89"/>
       <c r="C11">
         <v>0.27750875777822798</v>
       </c>
@@ -7884,17 +7884,17 @@
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -7902,23 +7902,23 @@
       <c r="B1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
@@ -7934,12 +7934,12 @@
       <c r="P1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
       <c r="U1" s="83"/>
       <c r="V1" s="82" t="s">
         <v>0</v>
@@ -7980,14 +7980,14 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="90" t="s">
+      <c r="Q2" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90" t="s">
+      <c r="R2" s="91"/>
+      <c r="S2" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="90"/>
+      <c r="T2" s="91"/>
       <c r="U2" s="3"/>
       <c r="V2" s="2"/>
     </row>
@@ -8016,7 +8016,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="92" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8059,7 +8059,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="92"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
@@ -8386,7 +8386,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8442,18 +8442,18 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="16" max="16" width="9.109375" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8462,23 +8462,23 @@
       <c r="C1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="84" t="s">
+      <c r="E1" s="86"/>
+      <c r="F1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="29">
@@ -8576,7 +8576,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="29">
         <v>5</v>
       </c>
@@ -8808,12 +8808,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1">
@@ -9126,7 +9126,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="4"/>
       <c r="B45" s="17" t="s">
         <v>93</v>
@@ -9141,7 +9141,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="43" t="s">
         <v>126</v>
       </c>
@@ -9246,11 +9246,11 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5">
@@ -9369,16 +9369,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA940F43-2538-4FD2-B991-19EB6EFFA229}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9956,12 +9956,12 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="98.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1">
@@ -9981,7 +9981,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6">
+    <row r="2" spans="1:5" ht="75">
       <c r="A2" s="8" t="s">
         <v>244</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="288">
+    <row r="3" spans="1:5" ht="330">
       <c r="A3" s="8" t="s">
         <v>245</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="8" t="s">
         <v>246</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6">
+    <row r="6" spans="1:5" ht="75">
       <c r="A6" s="8" t="s">
         <v>248</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72">
+    <row r="7" spans="1:5" ht="75">
       <c r="A7" s="8" t="s">
         <v>249</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.2">
+    <row r="8" spans="1:5" ht="45">
       <c r="A8" s="8" t="s">
         <v>250</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="86.4">
+    <row r="10" spans="1:5" ht="105">
       <c r="A10" s="8" t="s">
         <v>252</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="172.8">
+    <row r="11" spans="1:5" ht="210">
       <c r="A11" s="8" t="s">
         <v>253</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72">
+    <row r="12" spans="1:5" ht="75">
       <c r="A12" s="8" t="s">
         <v>254</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="8" t="s">
         <v>255</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="8" t="s">
         <v>256</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="72">
+    <row r="15" spans="1:5" ht="75">
       <c r="A15" s="8" t="s">
         <v>257</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>4857</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="129.6">
+    <row r="16" spans="1:5" ht="165">
       <c r="A16" s="8" t="s">
         <v>258</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.2">
+    <row r="17" spans="1:5" ht="45">
       <c r="A17" s="8" t="s">
         <v>259</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.2">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="8" t="s">
         <v>260</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="72">
+    <row r="19" spans="1:5" ht="90">
       <c r="A19" s="8" t="s">
         <v>261</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.2">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="8" t="s">
         <v>262</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="43.2">
+    <row r="21" spans="1:5" ht="60">
       <c r="A21" s="8" t="s">
         <v>263</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="72">
+    <row r="22" spans="1:5" ht="75">
       <c r="A22" s="8" t="s">
         <v>264</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="8" t="s">
         <v>265</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="57.6">
+    <row r="24" spans="1:5" ht="60">
       <c r="A24" s="8" t="s">
         <v>266</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="43.2">
+    <row r="26" spans="1:5" ht="60">
       <c r="A26" s="8" t="s">
         <v>268</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="8" t="s">
         <v>269</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="43.2">
+    <row r="28" spans="1:5" ht="45">
       <c r="A28" s="8" t="s">
         <v>270</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>3966</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="273.60000000000002">
+    <row r="29" spans="1:5" ht="315">
       <c r="A29" s="8" t="s">
         <v>271</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="86.4">
+    <row r="31" spans="1:5" ht="105">
       <c r="A31" s="8" t="s">
         <v>272</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.8">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="8" t="s">
         <v>273</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="115.2">
+    <row r="33" spans="1:5" ht="135">
       <c r="A33" s="8" t="s">
         <v>274</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="57.6">
+    <row r="34" spans="1:5" ht="75">
       <c r="A34" s="8" t="s">
         <v>275</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="72">
+    <row r="35" spans="1:5" ht="90">
       <c r="A35" s="8" t="s">
         <v>276</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="30">
       <c r="A36" s="8" t="s">
         <v>277</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.2">
+    <row r="37" spans="1:5" ht="45">
       <c r="A37" s="8" t="s">
         <v>278</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="57.6">
+    <row r="38" spans="1:5" ht="60">
       <c r="A38" s="8" t="s">
         <v>279</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="43.2">
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="8" t="s">
         <v>280</v>
       </c>
@@ -10371,7 +10371,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="72">
+    <row r="40" spans="1:5" ht="90">
       <c r="A40" s="8" t="s">
         <v>281</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="57.6">
+    <row r="41" spans="1:5" ht="75">
       <c r="A41" s="8" t="s">
         <v>282</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="28.8">
+    <row r="42" spans="1:5" ht="30">
       <c r="A42" s="8" t="s">
         <v>283</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="86.4">
+    <row r="43" spans="1:5" ht="90">
       <c r="A43" s="8" t="s">
         <v>284</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="100.8">
+    <row r="44" spans="1:5" ht="105">
       <c r="A44" s="8" t="s">
         <v>285</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="216">
+    <row r="47" spans="1:5" ht="255">
       <c r="A47" s="8" t="s">
         <v>287</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="158.4">
+    <row r="48" spans="1:5" ht="195">
       <c r="A48" s="8" t="s">
         <v>288</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="72">
+    <row r="49" spans="1:5" ht="75">
       <c r="A49" s="8" t="s">
         <v>289</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="100.8">
+    <row r="51" spans="1:5" ht="120">
       <c r="A51" s="8" t="s">
         <v>290</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="100.8">
+    <row r="52" spans="1:5" ht="120">
       <c r="A52" s="8" t="s">
         <v>291</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="144">
+    <row r="53" spans="1:5" ht="165">
       <c r="A53" s="8" t="s">
         <v>292</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="57.6">
+    <row r="54" spans="1:5" ht="60">
       <c r="A54" s="8" t="s">
         <v>293</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>4636</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="201.6">
+    <row r="55" spans="1:5" ht="240">
       <c r="A55" s="8" t="s">
         <v>294</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.8">
+    <row r="56" spans="1:5" ht="30">
       <c r="A56" s="8" t="s">
         <v>295</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="57.6">
+    <row r="57" spans="1:5" ht="60">
       <c r="A57" s="8" t="s">
         <v>296</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="72">
+    <row r="58" spans="1:5" ht="90">
       <c r="A58" s="8" t="s">
         <v>297</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="144">
+    <row r="59" spans="1:5" ht="165">
       <c r="A59" s="8" t="s">
         <v>298</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="57.6">
+    <row r="60" spans="1:5" ht="60">
       <c r="A60" s="8" t="s">
         <v>299</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="57.6">
+    <row r="61" spans="1:5" ht="90">
       <c r="A61" s="8" t="s">
         <v>300</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>4713</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="187.2">
+    <row r="62" spans="1:5" ht="225">
       <c r="A62" s="8" t="s">
         <v>301</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="230.4">
+    <row r="63" spans="1:5" ht="270">
       <c r="A63" s="8" t="s">
         <v>302</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="216">
+    <row r="64" spans="1:5" ht="255">
       <c r="A64" s="8" t="s">
         <v>303</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="28.8">
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="8" t="s">
         <v>304</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="201.6">
+    <row r="66" spans="1:5" ht="240">
       <c r="A66" s="8" t="s">
         <v>305</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="72">
+    <row r="67" spans="1:5" ht="75">
       <c r="A67" s="8" t="s">
         <v>306</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="43.2">
+    <row r="69" spans="1:5" ht="45">
       <c r="A69" s="8" t="s">
         <v>307</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="187.2">
+    <row r="70" spans="1:5" ht="225">
       <c r="A70" s="8" t="s">
         <v>308</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="144">
+    <row r="71" spans="1:5" ht="165">
       <c r="A71" s="8" t="s">
         <v>309</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="244.8">
+    <row r="72" spans="1:5" ht="285">
       <c r="A72" s="8" t="s">
         <v>310</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>4613</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="86.4">
+    <row r="73" spans="1:5" ht="105">
       <c r="A73" s="8" t="s">
         <v>311</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.8">
+    <row r="74" spans="1:5" ht="30">
       <c r="A74" s="8" t="s">
         <v>312</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72">
+    <row r="75" spans="1:5" ht="75">
       <c r="A75" s="8" t="s">
         <v>313</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>3987</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="28.8">
+    <row r="76" spans="1:5" ht="45">
       <c r="A76" s="8" t="s">
         <v>314</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>5198</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="72">
+    <row r="78" spans="1:5" ht="90">
       <c r="A78" s="8" t="s">
         <v>316</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="172.8">
+    <row r="79" spans="1:5" ht="210">
       <c r="A79" s="8" t="s">
         <v>317</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="28.8">
+    <row r="81" spans="1:5" ht="30">
       <c r="A81" s="8" t="s">
         <v>319</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="129.6">
+    <row r="82" spans="1:5" ht="135">
       <c r="A82" s="8" t="s">
         <v>320</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="144">
+    <row r="83" spans="1:5" ht="165">
       <c r="A83" s="8" t="s">
         <v>321</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="172.8">
+    <row r="84" spans="1:5" ht="195">
       <c r="A84" s="8" t="s">
         <v>322</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>5176</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="244.8">
+    <row r="85" spans="1:5" ht="270">
       <c r="A85" s="8" t="s">
         <v>323</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.8">
+    <row r="86" spans="1:5" ht="30">
       <c r="A86" s="8" t="s">
         <v>324</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6">
+    <row r="87" spans="1:5" ht="75">
       <c r="A87" s="8" t="s">
         <v>325</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="30">
       <c r="A88" s="8" t="s">
         <v>326</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.8">
+    <row r="91" spans="1:5" ht="45">
       <c r="A91" s="8" t="s">
         <v>327</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="43.2">
+    <row r="92" spans="1:5" ht="45">
       <c r="A92" s="8" t="s">
         <v>328</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>3630</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="129.6">
+    <row r="93" spans="1:5" ht="150">
       <c r="A93" s="8" t="s">
         <v>329</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="43.2">
+    <row r="94" spans="1:5" ht="60">
       <c r="A94" s="8" t="s">
         <v>330</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.8">
+    <row r="95" spans="1:5" ht="30">
       <c r="A95" s="8" t="s">
         <v>331</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>4597</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="28.8">
+    <row r="97" spans="1:5" ht="30">
       <c r="A97" s="8" t="s">
         <v>333</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="86.4">
+    <row r="98" spans="1:5" ht="105">
       <c r="A98" s="8" t="s">
         <v>334</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="43.2">
+    <row r="99" spans="1:5" ht="60">
       <c r="A99" s="8" t="s">
         <v>335</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="115.2">
+    <row r="100" spans="1:5" ht="135">
       <c r="A100" s="8" t="s">
         <v>336</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="57.6">
+    <row r="101" spans="1:5" ht="60">
       <c r="A101" s="8" t="s">
         <v>337</v>
       </c>

--- a/ADR_results.xlsx
+++ b/ADR_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIIT\LAB_SE\ADR\LLM4ADR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E5C98D-AA7B-4D91-B469-BD3AAC104BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A13446-1C85-407B-9FBE-1A6040B93552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0shot" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="813">
   <si>
     <t>machine</t>
   </si>
@@ -3702,6 +3702,21 @@
   </si>
   <si>
     <t>where is the ADR? these are the decision drivers in the context</t>
+  </si>
+  <si>
+    <t>Gemeni-0shot</t>
+  </si>
+  <si>
+    <t>GPT-Rag</t>
+  </si>
+  <si>
+    <t>Gemma-Finetuning</t>
+  </si>
+  <si>
+    <t>Flan-T5-approach</t>
+  </si>
+  <si>
+    <t>Llama-approach</t>
   </si>
 </sst>
 </file>
@@ -4491,7 +4506,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5261,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033403E0-8FEC-4AA7-9215-A0F7FBAFD3C8}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5274,23 +5289,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1">
       <c r="A2" s="84" t="s">
         <v>338</v>
       </c>
@@ -5300,20 +5315,20 @@
       <c r="C2" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="84">
-        <v>1</v>
-      </c>
-      <c r="E2" s="84">
-        <v>2</v>
-      </c>
-      <c r="F2" s="84">
-        <v>3</v>
-      </c>
-      <c r="G2" s="84">
-        <v>4</v>
-      </c>
-      <c r="H2" s="84">
-        <v>5</v>
+      <c r="D2" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7334,6 +7349,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8438,8 +8454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7BF0BE-31C9-4289-8D9D-D9A0D8DA70A6}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
